--- a/FishLandings/household groups/statistics/Herbivorous Detritivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Herbivorous Detritivorous (%)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>142810.25641</v>
+        <v>206201.218324</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>138.179495</v>
+        <v>231.635977</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>18084.358538</v>
+        <v>28654.054547</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8.748977999999999</v>
+        <v>16.094255</v>
       </c>
       <c r="E3">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>230473.321037</v>
+        <v>295544.783159</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-8.094238000000001</v>
+        <v>-8.678435</v>
       </c>
       <c r="H5">
-        <v>-22.134558</v>
+        <v>-19.495929</v>
       </c>
       <c r="I5">
-        <v>5.946082</v>
+        <v>2.139059</v>
       </c>
       <c r="J5">
-        <v>0.36364</v>
+        <v>0.143517</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>12.166331</v>
+        <v>11.910136</v>
       </c>
       <c r="H6">
-        <v>-2.952121</v>
+        <v>0.5481</v>
       </c>
       <c r="I6">
-        <v>27.284783</v>
+        <v>23.272172</v>
       </c>
       <c r="J6">
-        <v>0.141411</v>
+        <v>0.037415</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>20.260569</v>
+        <v>20.58857</v>
       </c>
       <c r="H7">
-        <v>8.830862</v>
+        <v>12.045078</v>
       </c>
       <c r="I7">
-        <v>31.690276</v>
+        <v>29.132063</v>
       </c>
       <c r="J7">
-        <v>0.000122</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Herbivorous Detritivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Herbivorous Detritivorous (%)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>206201.218324</v>
+        <v>142810.25641</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>231.635977</v>
+        <v>138.179495</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>28654.054547</v>
+        <v>18084.358538</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16.094255</v>
+        <v>8.748977999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>295544.783159</v>
+        <v>230473.321037</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-8.678435</v>
+        <v>-8.094238000000001</v>
       </c>
       <c r="H5">
-        <v>-19.495929</v>
+        <v>-22.134558</v>
       </c>
       <c r="I5">
-        <v>2.139059</v>
+        <v>5.946082</v>
       </c>
       <c r="J5">
-        <v>0.143517</v>
+        <v>0.36364</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>11.910136</v>
+        <v>12.166331</v>
       </c>
       <c r="H6">
-        <v>0.5481</v>
+        <v>-2.952121</v>
       </c>
       <c r="I6">
-        <v>23.272172</v>
+        <v>27.284783</v>
       </c>
       <c r="J6">
-        <v>0.037415</v>
+        <v>0.141411</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>20.58857</v>
+        <v>20.260569</v>
       </c>
       <c r="H7">
-        <v>12.045078</v>
+        <v>8.830862</v>
       </c>
       <c r="I7">
-        <v>29.132063</v>
+        <v>31.690276</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.000122</v>
       </c>
     </row>
   </sheetData>
